--- a/Term Project/Datasets/Sec_Accidents_Rate_Per_Year.xlsx
+++ b/Term Project/Datasets/Sec_Accidents_Rate_Per_Year.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Bellevue University\Course\github\dsc640\Term Project\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A70AE417-FC12-4ECF-A82D-C23D52930160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C58B1CC-C2C4-4232-99EF-1B13B803DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14C7F04D-2E1E-43E8-9024-466B76144ECC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{14C7F04D-2E1E-43E8-9024-466B76144ECC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accidents Per Year" sheetId="1" r:id="rId1"/>
+    <sheet name="Deaths Per Year" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Rank</t>
   </si>
@@ -42,6 +43,9 @@
   </si>
   <si>
     <t>Nb of Crashes</t>
+  </si>
+  <si>
+    <t>Fatalities</t>
   </si>
 </sst>
 </file>
@@ -395,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4C70EE-7BCD-4D1C-9B44-F06AD257F81A}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1573,4 +1577,1183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0258CDE2-E252-46AF-9CB3-38C3D1D9AB77}">
+  <dimension ref="A1:C106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1945</v>
+      </c>
+      <c r="C2">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1944</v>
+      </c>
+      <c r="C3">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1943</v>
+      </c>
+      <c r="C4">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1972</v>
+      </c>
+      <c r="C5">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1985</v>
+      </c>
+      <c r="C6">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1973</v>
+      </c>
+      <c r="C7">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1996</v>
+      </c>
+      <c r="C8">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1974</v>
+      </c>
+      <c r="C9">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1969</v>
+      </c>
+      <c r="C10">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1942</v>
+      </c>
+      <c r="C11">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1989</v>
+      </c>
+      <c r="C12">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1979</v>
+      </c>
+      <c r="C13">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1977</v>
+      </c>
+      <c r="C14">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1962</v>
+      </c>
+      <c r="C15">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1968</v>
+      </c>
+      <c r="C16">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1976</v>
+      </c>
+      <c r="C17">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1988</v>
+      </c>
+      <c r="C18">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1967</v>
+      </c>
+      <c r="C19">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1980</v>
+      </c>
+      <c r="C20">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1992</v>
+      </c>
+      <c r="C21">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1970</v>
+      </c>
+      <c r="C22">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1951</v>
+      </c>
+      <c r="C23">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1952</v>
+      </c>
+      <c r="C24">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1965</v>
+      </c>
+      <c r="C25">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1966</v>
+      </c>
+      <c r="C26">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1978</v>
+      </c>
+      <c r="C27">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1970</v>
+      </c>
+      <c r="C28">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1987</v>
+      </c>
+      <c r="C29">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1950</v>
+      </c>
+      <c r="C30">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1946</v>
+      </c>
+      <c r="C31">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1982</v>
+      </c>
+      <c r="C32">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1983</v>
+      </c>
+      <c r="C33">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1960</v>
+      </c>
+      <c r="C34">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1991</v>
+      </c>
+      <c r="C35">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1994</v>
+      </c>
+      <c r="C36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1948</v>
+      </c>
+      <c r="C37">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1953</v>
+      </c>
+      <c r="C38">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1961</v>
+      </c>
+      <c r="C39">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1975</v>
+      </c>
+      <c r="C40">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1947</v>
+      </c>
+      <c r="C41">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1949</v>
+      </c>
+      <c r="C42">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1995</v>
+      </c>
+      <c r="C43">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1963</v>
+      </c>
+      <c r="C44">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1958</v>
+      </c>
+      <c r="C45">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1964</v>
+      </c>
+      <c r="C46">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1997</v>
+      </c>
+      <c r="C47">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1993</v>
+      </c>
+      <c r="C48">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1986</v>
+      </c>
+      <c r="C49">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1998</v>
+      </c>
+      <c r="C50">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1957</v>
+      </c>
+      <c r="C51">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2000</v>
+      </c>
+      <c r="C52">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1981</v>
+      </c>
+      <c r="C53">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1954</v>
+      </c>
+      <c r="C54">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2001</v>
+      </c>
+      <c r="C55">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1959</v>
+      </c>
+      <c r="C56">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2005</v>
+      </c>
+      <c r="C57">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1956</v>
+      </c>
+      <c r="C58">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1955</v>
+      </c>
+      <c r="C59">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1990</v>
+      </c>
+      <c r="C60">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2002</v>
+      </c>
+      <c r="C61">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2014</v>
+      </c>
+      <c r="C62">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1984</v>
+      </c>
+      <c r="C63">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2006</v>
+      </c>
+      <c r="C64">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2003</v>
+      </c>
+      <c r="C65">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1999</v>
+      </c>
+      <c r="C66">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2010</v>
+      </c>
+      <c r="C67">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1941</v>
+      </c>
+      <c r="C68">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1940</v>
+      </c>
+      <c r="C69">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2009</v>
+      </c>
+      <c r="C70">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2018</v>
+      </c>
+      <c r="C71">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2007</v>
+      </c>
+      <c r="C72">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2015</v>
+      </c>
+      <c r="C73">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2008</v>
+      </c>
+      <c r="C74">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2011</v>
+      </c>
+      <c r="C75">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2012</v>
+      </c>
+      <c r="C76">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2004</v>
+      </c>
+      <c r="C77">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2016</v>
+      </c>
+      <c r="C78">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1938</v>
+      </c>
+      <c r="C79">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2019</v>
+      </c>
+      <c r="C80">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1939</v>
+      </c>
+      <c r="C81">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2020</v>
+      </c>
+      <c r="C82">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2013</v>
+      </c>
+      <c r="C83">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2021</v>
+      </c>
+      <c r="C84">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2017</v>
+      </c>
+      <c r="C85">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1936</v>
+      </c>
+      <c r="C86">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1937</v>
+      </c>
+      <c r="C87">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1933</v>
+      </c>
+      <c r="C88">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1935</v>
+      </c>
+      <c r="C89">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1929</v>
+      </c>
+      <c r="C90">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1930</v>
+      </c>
+      <c r="C91">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1934</v>
+      </c>
+      <c r="C92">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1931</v>
+      </c>
+      <c r="C93">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1932</v>
+      </c>
+      <c r="C94">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1928</v>
+      </c>
+      <c r="C95">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2022</v>
+      </c>
+      <c r="C96">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1927</v>
+      </c>
+      <c r="C97">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1922</v>
+      </c>
+      <c r="C98">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1926</v>
+      </c>
+      <c r="C99">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1921</v>
+      </c>
+      <c r="C100">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1920</v>
+      </c>
+      <c r="C101">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1923</v>
+      </c>
+      <c r="C102">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1925</v>
+      </c>
+      <c r="C103">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1919</v>
+      </c>
+      <c r="C104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1924</v>
+      </c>
+      <c r="C105">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1918</v>
+      </c>
+      <c r="C106">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>